--- a/app/templates/contable/plantillas/libro_caja.xlsx
+++ b/app/templates/contable/plantillas/libro_caja.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0949C43-A137-4803-8495-234AA8685CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CC761B-1D4B-486A-B299-B1CD23F75F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4FEE24B5-07F7-494D-8CBC-3245E2F539D5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="F1.1 Detalle mov efectivo" sheetId="2" r:id="rId1"/>
+    <sheet name="F1.1 Detalle mov efectivo" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -21,63 +21,44 @@
   <definedNames>
     <definedName name="VENCII">[1]CRONOGRAMA!$C$83:$D$452</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t xml:space="preserve">     TOTALES</t>
+    <t>FORMATO 1.1: "LIBRO CAJA Y BANCOS - DETALLE DE LOS MOVIMIENTOS DEL EFECTIVO"</t>
   </si>
   <si>
-    <t xml:space="preserve"> DENOMINACIÓN</t>
+    <t>PERÍODO:</t>
+  </si>
+  <si>
+    <t>RUC:</t>
+  </si>
+  <si>
+    <t>APELLIDOS Y NOMBRES, DENOMINACIÓN O RAZÓN SOCIAL:</t>
+  </si>
+  <si>
+    <t>NÚMERO CORRELATIVO DEL REGISTRO O CÓDIGO ÚNICO DE LA OPERACIÓN</t>
+  </si>
+  <si>
+    <t>FECHA DE LA OPERACIÓN</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN DE LA OPERACIÓN</t>
   </si>
   <si>
     <t xml:space="preserve">  CUENTA CONTABLE ASOCIADA</t>
   </si>
   <si>
-    <t>APELLIDOS Y NOMBRES, DENOMINACIÓN O RAZÓN SOCIAL:</t>
-  </si>
-  <si>
-    <t>RUC:</t>
-  </si>
-  <si>
-    <t>PERÍODO:</t>
-  </si>
-  <si>
-    <t>FORMATO 1.1: "LIBRO CAJA Y BANCOS - DETALLE DE LOS MOVIMIENTOS DEL EFECTIVO"</t>
-  </si>
-  <si>
-    <t>FECHA DE LA OPERACIÓN</t>
-  </si>
-  <si>
-    <t>NÚMERO CORRELATIVO DEL REGISTRO O CÓDIGO ÚNICO DE LA OPERACIÓN</t>
-  </si>
-  <si>
-    <t>DESCRIPCIÓN DE LA OPERACIÓN</t>
+    <t>SALDOS Y MOVIMIENTOS</t>
   </si>
   <si>
     <t>CÓDIGO</t>
   </si>
   <si>
-    <t>SALDOS Y MOVIMIENTOS</t>
+    <t xml:space="preserve"> DENOMINACIÓN</t>
   </si>
   <si>
     <t xml:space="preserve"> DEUDOR</t>
@@ -90,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +124,10 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -152,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -203,27 +188,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -232,7 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -242,32 +216,8 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -275,28 +225,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{685583FA-4490-480F-A105-EF1B0D3FB615}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3649,31 +3607,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA4533B-BA2A-470A-8AF9-BE175B466CE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="38.5546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="17" style="16" customWidth="1"/>
-    <col min="3" max="3" width="61.21875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="18" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="38" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15" style="8" customWidth="1"/>
+    <col min="3" max="3" width="60" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15" style="7" customWidth="1"/>
+    <col min="5" max="5" width="30" style="7" customWidth="1"/>
+    <col min="6" max="7" width="15" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="24" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="4"/>
@@ -3682,7 +3640,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="12" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
@@ -3691,9 +3649,9 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="21.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
@@ -3702,9 +3660,9 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="2"/>
@@ -3713,7 +3671,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="21.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3724,7 +3682,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3733,129 +3691,67 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:7" ht="47.25" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" ht="43.5" customHeight="1">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>2</v>
+      <c r="E8" s="11" t="s">
+        <v>10</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26" t="s">
+      <c r="F8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="21" t="s">
+      <c r="G8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="21" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+    <row r="9" spans="1:7" ht="14.4">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+    <row r="11" spans="1:7" ht="15" customHeight="1">
+      <c r="A11" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E16" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-    </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+    <row r="12" spans="1:7" ht="15" customHeight="1">
+      <c r="A12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.98425196850393704" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape"/>
 </worksheet>
 </file>
--- a/app/templates/contable/plantillas/libro_caja.xlsx
+++ b/app/templates/contable/plantillas/libro_caja.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\CICLO VIII\CALIDAD DE SOFTWARE\PROYECTO CONTABILIDAD FINAL\CONTABILIDAD_PROYECTO\app\templates\contable\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CC761B-1D4B-486A-B299-B1CD23F75F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7798A8-E7F4-4B41-8703-DFF6B99250E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -201,12 +201,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -225,12 +282,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -240,6 +291,18 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -247,10 +310,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3611,144 +3681,157 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="38" style="7" customWidth="1"/>
-    <col min="2" max="2" width="15" style="8" customWidth="1"/>
-    <col min="3" max="3" width="60" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15" style="7" customWidth="1"/>
-    <col min="5" max="5" width="30" style="7" customWidth="1"/>
-    <col min="6" max="7" width="15" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="12.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16" style="8" customWidth="1"/>
+    <col min="4" max="4" width="60" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15" style="7" customWidth="1"/>
+    <col min="6" max="6" width="30" style="7" customWidth="1"/>
+    <col min="7" max="8" width="15" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1">
+    <row r="1" spans="1:8" ht="24" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1">
+    <row r="2" spans="1:8" ht="12" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="21.75" customHeight="1">
+    <row r="3" spans="1:8" ht="21.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1">
+    <row r="4" spans="1:8" ht="21.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="21.75" customHeight="1">
+    <row r="5" spans="1:8" ht="21.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="E7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:7" ht="43.5" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="10" t="s">
+    <row r="8" spans="1:8" ht="43.5" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+    <row r="9" spans="1:8" ht="14.4">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1">
-      <c r="A11" s="6"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1">
-      <c r="A12" s="6"/>
+    <row r="11" spans="1:8" ht="15" customHeight="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1">
+      <c r="B12" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D7:E7"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.98425196850393704" bottom="1" header="0" footer="0"/>

--- a/app/templates/contable/plantillas/libro_caja.xlsx
+++ b/app/templates/contable/plantillas/libro_caja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\CICLO VIII\CALIDAD DE SOFTWARE\PROYECTO CONTABILIDAD FINAL\CONTABILIDAD_PROYECTO\app\templates\contable\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7798A8-E7F4-4B41-8703-DFF6B99250E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BE8367-4401-4208-8833-11DD26AAF284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>FORMATO 1.1: "LIBRO CAJA Y BANCOS - DETALLE DE LOS MOVIMIENTOS DEL EFECTIVO"</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t xml:space="preserve"> ACREEDOR</t>
+  </si>
+  <si>
+    <t>POR LA COMPRA DE MATERIALES SEGÚN FACTURA B001-0000020</t>
+  </si>
+  <si>
+    <t>Tormenta</t>
   </si>
 </sst>
 </file>
@@ -137,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -204,17 +210,6 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -237,22 +232,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -291,17 +271,17 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -310,17 +290,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3681,160 +3661,149 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16" style="8" customWidth="1"/>
-    <col min="4" max="4" width="60" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15" style="7" customWidth="1"/>
-    <col min="6" max="6" width="30" style="7" customWidth="1"/>
-    <col min="7" max="8" width="15" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="14.77734375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12" style="8" customWidth="1"/>
+    <col min="3" max="3" width="56.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15" style="7" customWidth="1"/>
+    <col min="5" max="5" width="30" style="7" customWidth="1"/>
+    <col min="6" max="7" width="15" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1">
+    <row r="1" spans="1:7" ht="24" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="12" customHeight="1">
+    <row r="2" spans="1:7" ht="12" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" customHeight="1">
+    <row r="3" spans="1:7" ht="21.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="21.75" customHeight="1">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="21.75" customHeight="1">
+    <row r="5" spans="1:7" ht="21.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="47.25" customHeight="1">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:7" ht="47.25" customHeight="1">
+      <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="D7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="19" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="10" t="s">
+    <row r="8" spans="1:7" ht="43.5" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.4">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12"/>
+    <row r="9" spans="1:7" ht="14.4">
+      <c r="A9" s="18"/>
+      <c r="B9" s="17">
+        <v>45449</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+    <row r="10" spans="1:7" ht="15" customHeight="1">
+      <c r="A10" s="15"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
-      <c r="B12" s="6"/>
+    <row r="11" spans="1:7" ht="15" customHeight="1">
+      <c r="A11" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="D7:D8"/>
+  <mergeCells count="5">
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.98425196850393704" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>